--- a/DataFiles/REMS2020_Template_2_Experiments.xlsx
+++ b/DataFiles/REMS2020_Template_2_Experiments.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqmstow1\Documents\GitHub\REMS2020\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqmstow1\Documents\REMS - Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="270" yWindow="660" windowWidth="15480" windowHeight="4755" tabRatio="669" activeTab="2"/>
+    <workbookView xWindow="270" yWindow="660" windowWidth="15480" windowHeight="4755" tabRatio="669" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Factors" sheetId="20" r:id="rId1"/>
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -547,6 +547,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -556,10 +576,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -587,6 +607,61 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -596,10 +671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="A2:C10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -621,10 +696,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -632,10 +767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -681,6 +816,146 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -691,10 +966,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="A2:D12"/>
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -711,6 +986,72 @@
       </c>
       <c r="C1" s="4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -725,7 +1066,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="A2:E20"/>
+      <selection activeCell="D7" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -744,12 +1085,54 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -757,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="A2:D13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -777,6 +1160,72 @@
       </c>
       <c r="C1" s="4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -791,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -817,12 +1266,54 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -830,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -861,6 +1352,61 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -871,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -911,6 +1457,91 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
